--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -663,7 +663,7 @@
         <v>2.7</v>
       </c>
       <c r="O2">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P2">
         <v>2.7</v>
@@ -699,13 +699,13 @@
         <v>28.3</v>
       </c>
       <c r="AA2">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB2">
         <v>1.95</v>
       </c>
       <c r="AC2">
-        <v>6.569285714285714</v>
+        <v>6.57</v>
       </c>
       <c r="AD2">
         <v>1.59</v>
@@ -755,7 +755,7 @@
         <v>2.33</v>
       </c>
       <c r="O3">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P3">
         <v>2.33</v>
@@ -791,13 +791,13 @@
         <v>32.13</v>
       </c>
       <c r="AA3">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB3">
         <v>1.76</v>
       </c>
       <c r="AC3">
-        <v>6.569285714285714</v>
+        <v>6.57</v>
       </c>
       <c r="AD3">
         <v>2.96</v>
@@ -847,7 +847,7 @@
         <v>1.93</v>
       </c>
       <c r="O4">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P4">
         <v>1.93</v>
@@ -883,13 +883,13 @@
         <v>34.35</v>
       </c>
       <c r="AA4">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB4">
         <v>0.72</v>
       </c>
       <c r="AC4">
-        <v>6.569285714285714</v>
+        <v>6.57</v>
       </c>
       <c r="AD4">
         <v>3.05</v>
@@ -927,7 +927,7 @@
         <v>2.31</v>
       </c>
       <c r="K5">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L5">
         <v>2.31</v>
@@ -939,7 +939,7 @@
         <v>1.69</v>
       </c>
       <c r="O5">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P5">
         <v>1.69</v>
@@ -975,13 +975,13 @@
         <v>33.91</v>
       </c>
       <c r="AA5">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB5">
         <v>1.28</v>
       </c>
       <c r="AC5">
-        <v>6.569285714285714</v>
+        <v>6.57</v>
       </c>
       <c r="AD5">
         <v>2.96</v>
@@ -1019,7 +1019,7 @@
         <v>1.89</v>
       </c>
       <c r="K6">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L6">
         <v>1.89</v>
@@ -1031,7 +1031,7 @@
         <v>1.25</v>
       </c>
       <c r="O6">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P6">
         <v>1.25</v>
@@ -1043,7 +1043,7 @@
         <v>4.77</v>
       </c>
       <c r="S6">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T6">
         <v>8.98</v>
@@ -1067,13 +1067,13 @@
         <v>25.35</v>
       </c>
       <c r="AA6">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB6">
         <v>0.76</v>
       </c>
       <c r="AC6">
-        <v>6.569285714285714</v>
+        <v>6.57</v>
       </c>
       <c r="AD6">
         <v>2.96</v>
@@ -1111,7 +1111,7 @@
         <v>1.97</v>
       </c>
       <c r="K7">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L7">
         <v>1.97</v>
@@ -1123,7 +1123,7 @@
         <v>1.15</v>
       </c>
       <c r="O7">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P7">
         <v>1.15</v>
@@ -1135,7 +1135,7 @@
         <v>4.92</v>
       </c>
       <c r="S7">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T7">
         <v>9.02</v>
@@ -1159,13 +1159,13 @@
         <v>25.94</v>
       </c>
       <c r="AA7">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB7">
         <v>0.5600000000000001</v>
       </c>
       <c r="AC7">
-        <v>6.569285714285714</v>
+        <v>6.57</v>
       </c>
       <c r="AD7">
         <v>2.96</v>
@@ -1191,7 +1191,7 @@
         <v>21.02</v>
       </c>
       <c r="G8">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H8">
         <v>0.58</v>
@@ -1203,7 +1203,7 @@
         <v>0.3</v>
       </c>
       <c r="K8">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L8">
         <v>3.22</v>
@@ -1215,7 +1215,7 @@
         <v>1.11</v>
       </c>
       <c r="O8">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P8">
         <v>1.11</v>
@@ -1227,7 +1227,7 @@
         <v>4.68</v>
       </c>
       <c r="S8">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T8">
         <v>9.699999999999999</v>
@@ -1251,7 +1251,7 @@
         <v>24.83</v>
       </c>
       <c r="AA8">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB8">
         <v>0.01</v>
@@ -1295,7 +1295,7 @@
         <v>0.38</v>
       </c>
       <c r="K9">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L9">
         <v>0.88</v>
@@ -1307,7 +1307,7 @@
         <v>1.21</v>
       </c>
       <c r="O9">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P9">
         <v>1.21</v>
@@ -1319,7 +1319,7 @@
         <v>4.59</v>
       </c>
       <c r="S9">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T9">
         <v>8.92</v>
@@ -1343,7 +1343,7 @@
         <v>22.23</v>
       </c>
       <c r="AA9">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB9">
         <v>0.01</v>
@@ -1387,7 +1387,7 @@
         <v>0.23</v>
       </c>
       <c r="K10">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L10">
         <v>0.28</v>
@@ -1399,7 +1399,7 @@
         <v>1.11</v>
       </c>
       <c r="O10">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P10">
         <v>1.11</v>
@@ -1411,7 +1411,7 @@
         <v>3.99</v>
       </c>
       <c r="S10">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T10">
         <v>8.23</v>
@@ -1467,10 +1467,10 @@
         <v>22.43</v>
       </c>
       <c r="G11">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H11">
-        <v>5.150666666666666</v>
+        <v>5.15</v>
       </c>
       <c r="I11">
         <v>0.05</v>
@@ -1479,7 +1479,7 @@
         <v>0.31</v>
       </c>
       <c r="K11">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L11">
         <v>0.37</v>
@@ -1503,7 +1503,7 @@
         <v>3.74</v>
       </c>
       <c r="S11">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T11">
         <v>8.23</v>
@@ -1559,10 +1559,10 @@
         <v>22.91</v>
       </c>
       <c r="G12">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H12">
-        <v>5.150666666666666</v>
+        <v>5.15</v>
       </c>
       <c r="I12">
         <v>0.26</v>
@@ -1583,7 +1583,7 @@
         <v>0.78</v>
       </c>
       <c r="O12">
-        <v>1.303</v>
+        <v>1.3</v>
       </c>
       <c r="P12">
         <v>0.78</v>
@@ -1595,7 +1595,7 @@
         <v>3.76</v>
       </c>
       <c r="S12">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T12">
         <v>7.65</v>
@@ -1651,10 +1651,10 @@
         <v>24.81</v>
       </c>
       <c r="G13">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H13">
-        <v>5.150666666666666</v>
+        <v>5.15</v>
       </c>
       <c r="I13">
         <v>0.32</v>
@@ -1687,7 +1687,7 @@
         <v>3.3</v>
       </c>
       <c r="S13">
-        <v>3.976666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="T13">
         <v>7.3</v>
@@ -1743,10 +1743,10 @@
         <v>22.8</v>
       </c>
       <c r="G14">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H14">
-        <v>5.150666666666666</v>
+        <v>5.15</v>
       </c>
       <c r="I14">
         <v>0.12</v>
@@ -1794,7 +1794,7 @@
         <v>12.94</v>
       </c>
       <c r="X14">
-        <v>1.176428571428572</v>
+        <v>1.18</v>
       </c>
       <c r="Y14">
         <v>19.74</v>
@@ -1835,10 +1835,10 @@
         <v>23.86</v>
       </c>
       <c r="G15">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H15">
-        <v>5.150666666666666</v>
+        <v>5.15</v>
       </c>
       <c r="I15">
         <v>4.19</v>
@@ -1886,7 +1886,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="X15">
-        <v>1.176428571428572</v>
+        <v>1.18</v>
       </c>
       <c r="Y15">
         <v>24.6</v>
@@ -1895,7 +1895,7 @@
         <v>28.99</v>
       </c>
       <c r="AA15">
-        <v>0.6627272727272728</v>
+        <v>0.66</v>
       </c>
       <c r="AB15">
         <v>7.17</v>
@@ -1927,7 +1927,7 @@
         <v>24.17</v>
       </c>
       <c r="G16">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H16">
         <v>0.53</v>
@@ -1978,7 +1978,7 @@
         <v>4.62</v>
       </c>
       <c r="X16">
-        <v>1.176428571428572</v>
+        <v>1.18</v>
       </c>
       <c r="Y16">
         <v>16.4</v>
@@ -2019,7 +2019,7 @@
         <v>21.09</v>
       </c>
       <c r="G17">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H17">
         <v>1.55</v>
@@ -2070,7 +2070,7 @@
         <v>4.15</v>
       </c>
       <c r="X17">
-        <v>1.176428571428572</v>
+        <v>1.18</v>
       </c>
       <c r="Y17">
         <v>13.6</v>
@@ -2111,7 +2111,7 @@
         <v>18.32</v>
       </c>
       <c r="G18">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H18">
         <v>0.53</v>
@@ -2162,7 +2162,7 @@
         <v>2.59</v>
       </c>
       <c r="X18">
-        <v>1.176428571428572</v>
+        <v>1.18</v>
       </c>
       <c r="Y18">
         <v>8.199999999999999</v>
@@ -2203,7 +2203,7 @@
         <v>22.57</v>
       </c>
       <c r="G19">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="H19">
         <v>0.55</v>
@@ -2215,7 +2215,7 @@
         <v>1.73</v>
       </c>
       <c r="K19">
-        <v>0.2166666666666667</v>
+        <v>0.22</v>
       </c>
       <c r="L19">
         <v>11.71</v>
@@ -2254,7 +2254,7 @@
         <v>3.9</v>
       </c>
       <c r="X19">
-        <v>1.176428571428572</v>
+        <v>1.18</v>
       </c>
       <c r="Y19">
         <v>13.44</v>
@@ -2325,7 +2325,7 @@
         <v>33.66</v>
       </c>
       <c r="Q20">
-        <v>5.602222222222221</v>
+        <v>5.6</v>
       </c>
       <c r="R20">
         <v>2.7</v>
@@ -2364,7 +2364,7 @@
         <v>4.22</v>
       </c>
       <c r="AD20">
-        <v>5.602222222222221</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2417,7 +2417,7 @@
         <v>30.9</v>
       </c>
       <c r="Q21">
-        <v>5.602222222222221</v>
+        <v>5.6</v>
       </c>
       <c r="R21">
         <v>2.7</v>
@@ -2456,7 +2456,7 @@
         <v>3.53</v>
       </c>
       <c r="AD21">
-        <v>5.602222222222221</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
